--- a/registrations.xlsx
+++ b/registrations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sapnam-my.sharepoint.com/personal/bao_dang_sap_com/Documents/Documents/SAP IA&amp;C/Operational AI Workshop/file/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sapnam-my.sharepoint.com/personal/bao_dang_sap_com/Documents/Documents/SAP IA&amp;C/Operational AI Workshop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3D25AFB-649B-4A23-AC93-2A71C8D7D22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C3D25AFB-649B-4A23-AC93-2A71C8D7D22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81BB6B0F-AFDD-41E5-90AA-DC11E36D6BD8}"/>
   <bookViews>
     <workbookView xWindow="754" yWindow="754" windowWidth="24686" windowHeight="13260" xr2:uid="{67FB1615-C018-4089-A7ED-54EBBCBE932C}"/>
   </bookViews>
@@ -477,7 +477,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,14 +492,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -528,18 +520,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -854,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7E978D-D5FE-45EC-AF04-16B7AE77698A}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -1389,11 +1379,8 @@
       <c r="C38" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C37" r:id="rId1" display="mailto:Jeff.Elliott@Atimaterials.com" xr:uid="{6F6BBB08-3527-4C0E-8E62-E567F64FC218}"/>
-  </hyperlinks>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>